--- a/biology/Zoologie/Archosargus_aries/Archosargus_aries.xlsx
+++ b/biology/Zoologie/Archosargus_aries/Archosargus_aries.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Archosargus aries est une espèce de poissons marins de la famille des Sparidés. Cette espèce n'est pas reconnue par FishBase et WoRMS, qui la considèrent comme un synonyme de Archosargus pourtalesii.
 </t>
